--- a/biology/Botanique/Fondante_de_Charneux/Fondante_de_Charneux.xlsx
+++ b/biology/Botanique/Fondante_de_Charneux/Fondante_de_Charneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondante de Charneux est une variété ancienne de poire, très appréciée en Belgique mais aussi dans d'autres pays. 
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été trouvée vers 1800, par Martin-Joseph Légipont à Charneux, province de Liège, près de la frontière prussienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été trouvée vers 1800, par Martin-Joseph Légipont à Charneux, province de Liège, près de la frontière prussienne.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nom de la variété fait souvent référence au nom de l'obtenteur ou au lieu de la découverte :
 Légipont ;
@@ -556,7 +572,7 @@
 Délice des Charneuses ;
 Désirée ;
 Des Charneux ;
-Fondante de Charneu[1]...</t>
+Fondante de Charneu...</t>
         </is>
       </c>
     </row>
@@ -586,12 +602,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Le bois est fort avec des rameaux nombreux, généralement érigés, gros et très longs, fortement géniculés[Note 1], cotonneux, brus olivâtres, aux lenticelles larges et abondantes, avec des coussinets des plus ressortis. Les yeux sont moyens, ovoïdes, aigus, non appliqués contre l'écorce.
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est fort avec des rameaux nombreux, généralement érigés, gros et très longs, fortement géniculés[Note 1], cotonneux, brus olivâtres, aux lenticelles larges et abondantes, avec des coussinets des plus ressortis. Les yeux sont moyens, ovoïdes, aigus, non appliqués contre l'écorce.
 L'arbre réussit aussi bien sur franc que sur cognassier. Quoique vigoureux, il se développe tardivement.
-Fruit
-Chair blanche, fine, fondante et sucrée, acidulée. Récolte fin septembre, consommation jusque début novembre[2].
-Le fruit est volumineux et parfois énorme, de forme allongée, irrégulière et parfois bosselée[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fondante_de_Charneux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fondante_de_Charneux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chair blanche, fine, fondante et sucrée, acidulée. Récolte fin septembre, consommation jusque début novembre.
+Le fruit est volumineux et parfois énorme, de forme allongée, irrégulière et parfois bosselée.
 </t>
         </is>
       </c>
